--- a/Diagrams.xlsx
+++ b/Diagrams.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Verle</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Ускорения</t>
+  </si>
+  <si>
+    <t>OpenCL</t>
   </si>
 </sst>
 </file>
@@ -94,10 +97,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -409,6 +411,78 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenCL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.05764846801757</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.21960911750793</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.63301057815551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2668478012084901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -418,11 +492,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1607361216"/>
-        <c:axId val="1607374816"/>
+        <c:axId val="-421139744"/>
+        <c:axId val="-421140832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1607361216"/>
+        <c:axId val="-421139744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -465,7 +539,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1607374816"/>
+        <c:crossAx val="-421140832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -473,7 +547,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1607374816"/>
+        <c:axId val="-421140832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -524,7 +598,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1607361216"/>
+        <c:crossAx val="-421139744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -891,6 +965,78 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenCL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$I$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.44350396853163565</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5168341299000903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4589330234719897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.60937918995937</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -900,11 +1046,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1607361760"/>
-        <c:axId val="1607371008"/>
+        <c:axId val="-421136480"/>
+        <c:axId val="-421145728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1607361760"/>
+        <c:axId val="-421136480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,7 +1093,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1607371008"/>
+        <c:crossAx val="-421145728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -955,7 +1101,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1607371008"/>
+        <c:axId val="-421145728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1006,7 +1152,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1607361760"/>
+        <c:crossAx val="-421136480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2523,13 +2669,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="10" style="1"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="7" width="10" style="1"/>
     <col min="8" max="8" width="17.140625" style="1" customWidth="1"/>
     <col min="9" max="19" width="10" style="1"/>
     <col min="20" max="20" width="11" style="1" bestFit="1" customWidth="1"/>
@@ -2665,7 +2812,37 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.05764846801757</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.21960911750793</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.63301057815551</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.2668478012084901</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" ref="I11" si="5">B$8 / B11</f>
+        <v>0.44350396853163565</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" ref="J11" si="6">C$8 / C11</f>
+        <v>1.5168341299000903</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" ref="K11" si="7">D$8 / D11</f>
+        <v>7.4589330234719897</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" ref="L11" si="8">E$8 / E11</f>
+        <v>21.60937918995937</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
